--- a/biology/Médecine/Liste_d'hôpitaux_à_Madagascar/Liste_d'hôpitaux_à_Madagascar.xlsx
+++ b/biology/Médecine/Liste_d'hôpitaux_à_Madagascar/Liste_d'hôpitaux_à_Madagascar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_d%27h%C3%B4pitaux_%C3%A0_Madagascar</t>
+          <t>Liste_d'hôpitaux_à_Madagascar</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article liste des hôpitaux de Madagascar.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_d%27h%C3%B4pitaux_%C3%A0_Madagascar</t>
+          <t>Liste_d'hôpitaux_à_Madagascar</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2019, il y avait 2 677 établissements médicaux à Madagascar , dont 125 hôpitaux. Les autres structures sont de petits centres et postes de santé. Étant donné que la plupart des hôpitaux, dispensaires et centres médicaux sont situés dans des zones urbaines, l'accès aux soins médicaux reste hors de portée de beaucoup. Environ 35% de la population vit à plus de 10 km d'un établissement de santé[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2019, il y avait 2 677 établissements médicaux à Madagascar , dont 125 hôpitaux. Les autres structures sont de petits centres et postes de santé. Étant donné que la plupart des hôpitaux, dispensaires et centres médicaux sont situés dans des zones urbaines, l'accès aux soins médicaux reste hors de portée de beaucoup. Environ 35% de la population vit à plus de 10 km d'un établissement de santé,.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_d%27h%C3%B4pitaux_%C3%A0_Madagascar</t>
+          <t>Liste_d'hôpitaux_à_Madagascar</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Hôpitaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
